--- a/results/NUOVO_OPEN_microservices.xlsx
+++ b/results/NUOVO_OPEN_microservices.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manages the catalog of products, including browsing, detailed product information, and admin management of products.</t>
+          <t>Manages the product catalog including browsing, viewing product details, and admin operations for adding/updating products. Also handles inventory management.</t>
         </is>
       </c>
     </row>
@@ -458,31 +458,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Handles adding, removing, and managing products in the customer's shopping cart.</t>
+          <t>Handles shopping cart operations including adding and removing items from the cart.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Checkout Service</t>
+          <t>Recommendation Service</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manages the checkout process, including order placement, payment processing, tax and shipping calculation, and prevention of duplicate orders.</t>
+          <t>Provides personalized product recommendations based on user preferences, browsing history, and purchase behavior.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Recommendation Service</t>
+          <t>Checkout Service</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Provides product recommendations based on user preferences, behaviors, and browsing or purchase history.</t>
+          <t>Manages the checkout process including payment processing, tax and shipping cost calculation, order creation, and duplicate order prevention.</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sends order confirmation emails and promotional emails to customers.</t>
+          <t>Sends email notifications including order confirmations and promotional emails to customers.</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Manages shipping options, shipping address updates, and order tracking.</t>
+          <t>Manages shipping options, tracking, and address updates for customer orders.</t>
         </is>
       </c>
     </row>
@@ -518,55 +518,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Handles currency conversion and displays prices in the user's local currency.</t>
+          <t>Provides currency conversion and displays prices in the customer's local currency.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Inventory Service</t>
+          <t>Order History Service</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manages inventory levels to prevent overselling of products.</t>
+          <t>Manages customer order history, allowing customers to review past orders for reordering.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Order History Service</t>
+          <t>Advertisement Service</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Allows customers to review their past orders and reorder items.</t>
+          <t>Displays targeted advertisements to users based on their browsing habits and behavior.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ad Service</t>
+          <t>Analytics Service</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Displays targeted ads to users based on their browsing habits.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Reporting Service</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Generates sales reports for admins to analyze business performance.</t>
+          <t>Generates sales reports and provides business performance analytics for administrators.</t>
         </is>
       </c>
     </row>
@@ -581,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,43 +597,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manages the product catalog, including browsing, updating product details, and managing catalog listings.</t>
+          <t>Manages product information, catalog listings, inventory levels, and product details. Handles product browsing, inventory management, and catalog administration.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shopping Assistant Service</t>
+          <t>Recommendation Service</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Assists customers in adding items to their cart and handles customer inquiries.</t>
+          <t>Provides personalized product recommendations to customers based on browsing history, preferences, and purchase patterns.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recommendation Service</t>
+          <t>Shopping Assistant Service</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Provides personalized product recommendations to customers.</t>
+          <t>Provides intelligent assistance for shopping activities including helping customers add items to cart and handling customer inquiries.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cart and Checkout Service</t>
+          <t>Cart &amp; Checkout Service</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Handles cart management, checkout process, order placement, and applying discount codes.</t>
+          <t>Manages shopping cart operations, checkout process, discount code application, and order placement.</t>
         </is>
       </c>
     </row>
@@ -657,67 +645,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Manages order processing, order history, and order status tracking.</t>
+          <t>Handles order processing, order history, order status tracking, and provides order analytics for reporting.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Email Notification Service</t>
+          <t>Shipping Service</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sends confirmation emails after orders and personalized promotional emails based on user preferences.</t>
+          <t>Manages shipping options, shipping rates, delivery methods, and shipment tracking functionality.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shipping Service</t>
+          <t>Email Notification Service</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Manages shipping options during checkout and tracks shipment status.</t>
+          <t>Sends transactional emails (order confirmations) and promotional emails based on user preferences and system triggers.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Inventory Service</t>
+          <t>Review Service</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manages inventory for each product in the catalog.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Review and Feedback Service</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Allows customers to review products and provide feedback after purchase.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Reporting and Analytics Service</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Monitors order trends and generates sales reports for admins.</t>
+          <t>Manages customer product reviews, ratings, and feedback collection after purchase.</t>
         </is>
       </c>
     </row>
@@ -732,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,132 +719,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ride Request Service</t>
+          <t>ride-management-service</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Handles creation, scheduling, and management of ride requests, including matching riders with drivers and balancing ride requests among available drivers.</t>
+          <t>Manages the complete ride lifecycle including ride requests, scheduling, matching riders with drivers, and ride history. Handles ride state transitions and assignment logic.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Notification Service</t>
+          <t>notification-service</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sends notifications to users about ride status, arrivals, receipts, and other relevant updates.</t>
+          <t>Handles all notification delivery across multiple channels (push, email, SMS) for ride status updates, receipts, and system alerts to riders and drivers.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Real-Time Location Service</t>
+          <t>location-tracking-service</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tracks and updates real-time locations of drivers and rides, integrates with external map services for navigation and routing, and provides ETA information.</t>
+          <t>Manages real-time location updates from drivers and provides tracking functionality for riders. Integrates with external map services for navigation, routing, and ETA calculations.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Payment Service</t>
+          <t>payment-service</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Handles secure in-app payments for rides, processes driver payouts, and generates/send receipts to users.</t>
+          <t>Handles all payment processing including ride payments, driver payouts, secure transaction processing, and receipt generation.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rating and Feedback Service</t>
+          <t>rating-feedback-service</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Collects and manages rider feedback and driver ratings after trips.</t>
+          <t>Manages post-trip ratings, reviews, and feedback collection for drivers and riders. Stores and aggregates rating data.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ride History Service</t>
+          <t>user-management-service</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stores and retrieves history of previous rides for riders.</t>
+          <t>Manages user and driver profiles, authentication, authorization, driver availability status, and platform user administration.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Availability Service</t>
+          <t>support-service</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Allows drivers to set and update their availability status.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lost and Found Service</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Handles lost-and-found requests for items left in vehicles.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>User and Driver Management Service</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Manages user and driver accounts, including admin capabilities for monitoring and management.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Customer Support Service</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Provides customer support messaging for users experiencing issues.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Service Discovery Service</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Enables robust communication and discovery between microservices in the platform.</t>
+          <t>Provides customer support functionality including messaging, lost-and-found requests, ride monitoring for safety, and admin support tools.</t>
         </is>
       </c>
     </row>
@@ -918,12 +834,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Train Schedule Service</t>
+          <t>Train Search Service</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Handles searching and retrieving available train schedules, including train availability and status updates.</t>
+          <t>Handles searching for available trains, schedules, and validating train availability for bookings.</t>
         </is>
       </c>
     </row>
@@ -935,7 +851,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manages ticket booking, cancellation, seat selection, and booking confirmation processes.</t>
+          <t>Manages ticket bookings, cancellations, seat selection, price checking, and booking confirmations using event sourcing for audit trail.</t>
         </is>
       </c>
     </row>
@@ -947,7 +863,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sends notifications to users about bookings, schedule changes, delays, and confirmations via email or messages.</t>
+          <t>Sends notifications to users about bookings, confirmations, schedule changes, delays, and train status updates via email or messages.</t>
         </is>
       </c>
     </row>
@@ -959,43 +875,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manages user profiles, including personal data updates and frequent contacts.</t>
+          <t>Manages user personal information, contact details, profile updates, and frequent contacts storage.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account &amp; Role Management Service</t>
+          <t>User Management Service</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Handles user account creation, authentication, and role-based access control for secure system usage.</t>
+          <t>Handles user account management, authentication, authorization, role management, and secure access control.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Admin Management Service</t>
+          <t>Admin Service</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Allows administrators to view and manage all ticket bookings and generate sales and usage reports.</t>
+          <t>Provides administrative functionalities including viewing/managing all bookings and generating reports on ticket sales and usage using CQRS for optimized reporting.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pricing &amp; Payment Service</t>
+          <t>Payment Service</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Provides ticket price information, payment options, and ensures secure, encrypted transactions.</t>
+          <t>Handles secure payment processing, transaction encryption, and payment option management for ticket bookings with event sourcing for compliance.</t>
         </is>
       </c>
     </row>
@@ -1033,84 +949,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Catalog Service</t>
+          <t>catalog-service</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manages the catalog of tea products, including browsing, viewing details, checking availability, and admin operations for adding, updating, or deleting teas.</t>
+          <t>Manages the tea product catalog including browsing, viewing details, checking availability, and CRUD operations for tea products</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recommendation Service</t>
+          <t>recommendation-service</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Provides personalized tea recommendations to customers and processes single or multiple recommendation requests.</t>
+          <t>Provides personalized tea recommendations to customers based on their preferences and purchase history</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cart Service</t>
+          <t>cart-service</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Handles shopping cart operations, allowing customers to add teas and prepare orders.</t>
+          <t>Handles shopping cart operations including adding teas and managing cart state before checkout</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Order Service</t>
+          <t>order-service</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Processes tea orders, confirms purchases, tracks and updates order timestamps, and allows customers to review past orders.</t>
+          <t>Processes tea orders, manages order confirmation, tracks order timestamps, and maintains order history for customers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Store Readiness Service</t>
+          <t>review-service</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tracks and reports the readiness status of the store for processing orders.</t>
+          <t>Manages customer ratings and reviews for purchased tea products</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Review Service</t>
+          <t>notification-service</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Allows customers to rate and review teas they have purchased.</t>
+          <t>Sends notifications to customers about special offers, new arrivals, and other promotional content</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Notification Service</t>
+          <t>health-service</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sends notifications to customers about special offers and new arrivals.</t>
+          <t>Monitors and reports the readiness status of the store and its components to ensure system availability</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,108 +1064,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Catalog Service</t>
+          <t>catalog-service</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manages the sock product catalog, including browsing, searching, and admin updates to listings.</t>
+          <t>Manages the product catalog of socks, including browsing, searching, and CRUD operations for sock listings</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cart Service</t>
+          <t>cart-service</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Handles shopping cart operations such as adding items, updating quantities, and viewing cart contents.</t>
+          <t>Handles shopping cart operations including adding items, viewing cart contents, and updating quantities</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Checkout Service</t>
+          <t>order-service</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Processes checkout operations, including payment handling and order creation.</t>
+          <t>Manages order processing, checkout, payment, order confirmation, status tracking, order history, and reordering functionality</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Order Service</t>
+          <t>inventory-service</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manages order processing, order history, order confirmation, and status updates.</t>
+          <t>Tracks product availability and stock levels to prevent ordering out-of-stock items</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shipping Service</t>
+          <t>shipping-service</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tracks shipment status and updates customers on delivery progress.</t>
+          <t>Handles shipment tracking and delivery status updates for completed orders</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Inventory Service</t>
+          <t>review-service</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ensures product availability and prevents ordering of out-of-stock items.</t>
+          <t>Manages customer ratings and purchase experience feedback</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rating/Review Service</t>
+          <t>monitoring-service</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Allows customers to rate their purchase experience.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Logging Service</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Logs important events for monitoring, debugging, and admin review of failed transactions or errors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Monitoring Service</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Monitors service health and performance, integrates with Prometheus, and detects/alerts admins to potential issues in real time.</t>
+          <t>Provides logging, monitoring, health checks, performance metrics via Prometheus, real-time alerting, and log review capabilities for debugging</t>
         </is>
       </c>
     </row>
